--- a/CLB Bida/Resources/Template/Bill_Bida_Template.xlsx
+++ b/CLB Bida/Resources/Template/Bill_Bida_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ĐA Chuyên Ngành\bida\CLB Bida\Resources\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cn-da20ttb-nhanleminhtrong-c--clbbida\src\CLB Bida\Resources\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9DCB38-AC73-4FD3-BB21-9EA0D9ECC362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA11D8-B8D6-4C19-91C0-B5D171A243D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{306C12E9-C0A3-4EC0-A5BE-B75481A2F59A}"/>
   </bookViews>
@@ -465,17 +465,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
